--- a/Measures/10roundsMio.xlsx
+++ b/Measures/10roundsMio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saschahoppler/Desktop/Uni/DDBS/Project/DDBS-BF/Measures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B42BBF-29AC-3C4B-8C53-D8C12585C904}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F57CBD2-4E2E-9C48-A875-AA4F28D8C511}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="440" windowWidth="24540" windowHeight="14140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>Runde| m</t>
   </si>
@@ -1108,19 +1108,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -2404,8 +2392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G18" zoomScale="101" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="75" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2414,7 +2402,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="AF1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3613,6 +3601,9 @@
       <c r="AE14">
         <f t="shared" ref="AE14" si="3">AE13*1000000</f>
         <v>30000000</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.2">
